--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\Nominas2020\resources\original 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaela\universidad\SSII 2\Prácticas Sistemas de la Información 2\Sistemas_2_p2\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF134B-116F-43A2-8F85-247C84C55EE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73848B-5243-4BC7-899B-BAF75980D48E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -601,898 +601,899 @@
     <t>Castrillo</t>
   </si>
   <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Fidalgo</t>
+  </si>
+  <si>
+    <t>71393411P</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>71404625K</t>
+  </si>
+  <si>
+    <t>Cabero</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>Dorina</t>
+  </si>
+  <si>
+    <t>71609083D</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>09548416N</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Fresco</t>
+  </si>
+  <si>
+    <t>09548245W</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>71393352H</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>09738010V</t>
+  </si>
+  <si>
+    <t>Encarnación</t>
+  </si>
+  <si>
+    <t>Herrero</t>
+  </si>
+  <si>
+    <t>09570211A</t>
+  </si>
+  <si>
+    <t>Eulalia</t>
+  </si>
+  <si>
+    <t>Cascallana</t>
+  </si>
+  <si>
+    <t>Jaular</t>
+  </si>
+  <si>
+    <t>02614035Q</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Gomara</t>
+  </si>
+  <si>
+    <t>Iban</t>
+  </si>
+  <si>
+    <t>09689676Y</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Generoso</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>71393354C</t>
+  </si>
+  <si>
+    <t>Herminia</t>
+  </si>
+  <si>
+    <t>Santín</t>
+  </si>
+  <si>
+    <t>10405904Z</t>
+  </si>
+  <si>
+    <t>Héctor</t>
+  </si>
+  <si>
+    <t>Melcón</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>09548392B</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Castañeda</t>
+  </si>
+  <si>
+    <t>09570242B</t>
+  </si>
+  <si>
+    <t>Germán</t>
+  </si>
+  <si>
+    <t>Bariales</t>
+  </si>
+  <si>
+    <t>09314602Q</t>
+  </si>
+  <si>
+    <t>Inés</t>
+  </si>
+  <si>
+    <t>Riverto</t>
+  </si>
+  <si>
+    <t>Fuertes</t>
+  </si>
+  <si>
+    <t>09548150E</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Echevarria</t>
+  </si>
+  <si>
+    <t>Almanzar</t>
+  </si>
+  <si>
+    <t>09810142K</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>09545570H</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>10940987W</t>
+  </si>
+  <si>
+    <t>Julio Ernesto</t>
+  </si>
+  <si>
+    <t>71393396Q</t>
+  </si>
+  <si>
+    <t>Justina</t>
+  </si>
+  <si>
+    <t>10575307E</t>
+  </si>
+  <si>
+    <t>Julio Pedro</t>
+  </si>
+  <si>
+    <t>09632539R</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>09548283V</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Sevillano</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>02518676S</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>Arias</t>
+  </si>
+  <si>
+    <t>09786363R</t>
+  </si>
+  <si>
+    <t>Serafín</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>09758365V</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Sutil</t>
+  </si>
+  <si>
+    <t>09611066X</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Galán</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>71878948S</t>
+  </si>
+  <si>
+    <t>Rubén Darío</t>
+  </si>
+  <si>
+    <t>09548287K</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Laiz</t>
+  </si>
+  <si>
+    <t>Domínguez</t>
+  </si>
+  <si>
+    <t>09548451R</t>
+  </si>
+  <si>
+    <t>Rocío</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>09481741Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramón </t>
+  </si>
+  <si>
+    <t>00538394X</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Orejas</t>
+  </si>
+  <si>
+    <t>Díez</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Olle</t>
+  </si>
+  <si>
+    <t>09548215H</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Márquez</t>
+  </si>
+  <si>
+    <t>09779285F</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Iglesias</t>
+  </si>
+  <si>
+    <t>71597570L</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Manzanares</t>
+  </si>
+  <si>
+    <t>Cadenas</t>
+  </si>
+  <si>
+    <t>09570258G</t>
+  </si>
+  <si>
+    <t>Nieves</t>
+  </si>
+  <si>
+    <t>Morán</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Morala</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>09806572Q</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Benito</t>
+  </si>
+  <si>
+    <t>09548505D</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Belerda</t>
+  </si>
+  <si>
+    <t>Aparicio</t>
+  </si>
+  <si>
+    <t>09706118A</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Calleja</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>09769669M</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Candanedo</t>
+  </si>
+  <si>
+    <t>Portugues</t>
+  </si>
+  <si>
+    <t>09548317M</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>09458455G</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>Bayon</t>
+  </si>
+  <si>
+    <t>12160221Y</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Carpintero</t>
+  </si>
+  <si>
+    <t>Cepin</t>
+  </si>
+  <si>
+    <t>12649208J</t>
+  </si>
+  <si>
+    <t>Jesús Manuel</t>
+  </si>
+  <si>
+    <t>Centeno</t>
+  </si>
+  <si>
+    <t>X3607387K</t>
+  </si>
+  <si>
+    <t>José Antonio</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Ponga</t>
+  </si>
+  <si>
+    <t>12684218V</t>
+  </si>
+  <si>
+    <t>Nelida</t>
+  </si>
+  <si>
+    <t>Charro</t>
+  </si>
+  <si>
+    <t>09548290R</t>
+  </si>
+  <si>
+    <t>Marisa</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Cedron</t>
+  </si>
+  <si>
+    <t>09626048L</t>
+  </si>
+  <si>
+    <t>Melisa</t>
+  </si>
+  <si>
+    <t>09548501M</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Cembranos</t>
+  </si>
+  <si>
+    <t>Lombás</t>
+  </si>
+  <si>
+    <t>Almarza</t>
+  </si>
+  <si>
+    <t>71404629W</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Río</t>
+  </si>
+  <si>
+    <t>09570262P</t>
+  </si>
+  <si>
+    <t>X1673150S</t>
+  </si>
+  <si>
+    <t>Latifa Epfouad Erre</t>
+  </si>
+  <si>
+    <t>51556584121251000254</t>
+  </si>
+  <si>
+    <t>26551681877651415636</t>
+  </si>
+  <si>
+    <t>62541122001110105611</t>
+  </si>
+  <si>
+    <t>65645150005168448896</t>
+  </si>
+  <si>
+    <t>20012541100023365233</t>
+  </si>
+  <si>
+    <t>23658965214585223202</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>P2456841A</t>
+  </si>
+  <si>
+    <t>PBlankSA</t>
+  </si>
+  <si>
+    <t>P2492876R</t>
+  </si>
+  <si>
+    <t>APhonSA</t>
+  </si>
+  <si>
+    <t>P2463928T</t>
+  </si>
+  <si>
+    <t>Asoftware</t>
+  </si>
+  <si>
+    <t>P2418823C</t>
+  </si>
+  <si>
+    <t>32145464138452163421</t>
+  </si>
+  <si>
+    <t>31645124473461205164</t>
+  </si>
+  <si>
+    <t>65614874165615445616</t>
+  </si>
+  <si>
+    <t>32569523016220165156</t>
+  </si>
+  <si>
+    <t>24561937521546497521</t>
+  </si>
+  <si>
+    <t>36520125638451012515</t>
+  </si>
+  <si>
+    <t>20125003305201112544</t>
+  </si>
+  <si>
+    <t>21651484690980008984</t>
+  </si>
+  <si>
+    <t>Y1337652D</t>
+  </si>
+  <si>
+    <t>21564975243245467995</t>
+  </si>
+  <si>
+    <t>32566221522587754554</t>
+  </si>
+  <si>
+    <t>23215465315456411515</t>
+  </si>
+  <si>
+    <t>00750184310702510000</t>
+  </si>
+  <si>
+    <t>21584976902154655487</t>
+  </si>
+  <si>
+    <t>25894363475485700145</t>
+  </si>
+  <si>
+    <t>96431245118150005156</t>
+  </si>
+  <si>
+    <t>25030000114574745458</t>
+  </si>
+  <si>
+    <t>15953684811254695203</t>
+  </si>
+  <si>
+    <t>20960043023096200000</t>
+  </si>
+  <si>
+    <t>Y0806930N</t>
+  </si>
+  <si>
+    <t>23455254943263234457</t>
+  </si>
+  <si>
+    <t>09741995T</t>
+  </si>
+  <si>
+    <t>20960043032159000000</t>
+  </si>
+  <si>
+    <t>12669681115112121210</t>
+  </si>
+  <si>
+    <t>56187775315550000651</t>
+  </si>
+  <si>
+    <t>25516848021156151054</t>
+  </si>
+  <si>
+    <t>64578946740051516490</t>
+  </si>
+  <si>
+    <t>34698752714600549403</t>
+  </si>
+  <si>
+    <t>66649444162310000255</t>
+  </si>
+  <si>
+    <t>23185484465641685100</t>
+  </si>
+  <si>
+    <t>52198484752100515144</t>
+  </si>
+  <si>
+    <t>36250012804785523365</t>
+  </si>
+  <si>
+    <t>22515651915640081000</t>
+  </si>
+  <si>
+    <t>21508149175421346497</t>
+  </si>
+  <si>
+    <t>24304263W</t>
+  </si>
+  <si>
+    <t>21346154503164978451</t>
+  </si>
+  <si>
+    <t>25187786311225455548</t>
+  </si>
+  <si>
+    <t>23164897642213030615</t>
+  </si>
+  <si>
+    <t>96536214865214585214</t>
+  </si>
+  <si>
+    <t>85461325251978750005</t>
+  </si>
+  <si>
+    <t>24587946032003165464</t>
+  </si>
+  <si>
+    <t>24571671N</t>
+  </si>
+  <si>
+    <t>20960043073071400000</t>
+  </si>
+  <si>
+    <t>20960043042158800000</t>
+  </si>
+  <si>
+    <t>21654587985156484454</t>
+  </si>
+  <si>
+    <t>51651681961210656510</t>
+  </si>
+  <si>
+    <t>66552211148855332200</t>
+  </si>
+  <si>
+    <t>09548827D</t>
+  </si>
+  <si>
+    <t>X8996448K</t>
+  </si>
+  <si>
+    <t>01821135910205540000</t>
+  </si>
+  <si>
+    <t>22631245526916432102</t>
+  </si>
+  <si>
+    <t>09548295Y</t>
+  </si>
+  <si>
+    <t>20960043043075700000</t>
+  </si>
+  <si>
+    <t>25635478321002541225</t>
+  </si>
+  <si>
+    <t>32154697195423121000</t>
+  </si>
+  <si>
+    <t>36521452736500658485</t>
+  </si>
+  <si>
+    <t>20008521528775113366</t>
+  </si>
+  <si>
+    <t>51651487910005118185</t>
+  </si>
+  <si>
+    <t>09611087P</t>
+  </si>
+  <si>
+    <t>21651651812511133551</t>
+  </si>
+  <si>
+    <t>20960043033000100000</t>
+  </si>
+  <si>
+    <t>36585214290025478551</t>
+  </si>
+  <si>
+    <t>12548523465214585214</t>
+  </si>
+  <si>
+    <t>31624561042546920007</t>
+  </si>
+  <si>
+    <t>36154231712500312566</t>
+  </si>
+  <si>
+    <t>44875664127231645789</t>
+  </si>
+  <si>
+    <t>09548486J</t>
+  </si>
+  <si>
+    <t>33620012937852100256</t>
+  </si>
+  <si>
+    <t>33218885441445121022</t>
+  </si>
+  <si>
+    <t>62581542713690044508</t>
+  </si>
+  <si>
+    <t>25165151118666365100</t>
+  </si>
+  <si>
+    <t>36952365020014425254</t>
+  </si>
+  <si>
+    <t>65168874641561561500</t>
+  </si>
+  <si>
+    <t>20960583831234500000</t>
+  </si>
+  <si>
+    <t>21416325811510005514</t>
+  </si>
+  <si>
+    <t>32628484504115151115</t>
+  </si>
+  <si>
+    <t>63516541828944000984</t>
+  </si>
+  <si>
+    <t>32658012367712548745</t>
+  </si>
+  <si>
+    <t>23652365142254222000</t>
+  </si>
+  <si>
+    <t>32584216971684051000</t>
+  </si>
+  <si>
+    <t>55065688761051056105</t>
+  </si>
+  <si>
+    <t>95485212315484010000</t>
+  </si>
+  <si>
+    <t>21856333126985542360</t>
+  </si>
+  <si>
+    <t>36245978133245679001</t>
+  </si>
+  <si>
+    <t>31245164156597845124</t>
+  </si>
+  <si>
+    <t>23221158252545471411</t>
+  </si>
+  <si>
+    <t>32574512085411002255</t>
+  </si>
+  <si>
+    <t>20960043013468900000</t>
+  </si>
+  <si>
+    <t>09548443Q</t>
+  </si>
+  <si>
+    <t>31215643855060225021</t>
+  </si>
+  <si>
+    <t>09749147E</t>
+  </si>
+  <si>
+    <t>85550564726165145610</t>
+  </si>
+  <si>
+    <t>65165654918886005001</t>
+  </si>
+  <si>
+    <t>26221011628048788896</t>
+  </si>
+  <si>
+    <t>12548521518742146695</t>
+  </si>
+  <si>
+    <t>32541112811220000588</t>
+  </si>
+  <si>
+    <t>99558741836555551120</t>
+  </si>
+  <si>
     <t>09611071S</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Fidalgo</t>
-  </si>
-  <si>
-    <t>71393411P</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>71404625K</t>
-  </si>
-  <si>
-    <t>Cabero</t>
-  </si>
-  <si>
-    <t>Guerra</t>
-  </si>
-  <si>
-    <t>Dorina</t>
-  </si>
-  <si>
-    <t>71609083D</t>
-  </si>
-  <si>
-    <t>Dolores</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>09548416N</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Fresco</t>
-  </si>
-  <si>
-    <t>09548245W</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>71393352H</t>
-  </si>
-  <si>
-    <t>Emiliano</t>
-  </si>
-  <si>
-    <t>Puente</t>
-  </si>
-  <si>
-    <t>09738010V</t>
-  </si>
-  <si>
-    <t>Encarnación</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>09570211A</t>
-  </si>
-  <si>
-    <t>Eulalia</t>
-  </si>
-  <si>
-    <t>Cascallana</t>
-  </si>
-  <si>
-    <t>Jaular</t>
-  </si>
-  <si>
-    <t>02614035Q</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Gomara</t>
-  </si>
-  <si>
-    <t>Iban</t>
-  </si>
-  <si>
-    <t>09689676Y</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
-    <t>Generoso</t>
-  </si>
-  <si>
-    <t>Soto</t>
-  </si>
-  <si>
-    <t>71393354C</t>
-  </si>
-  <si>
-    <t>Herminia</t>
-  </si>
-  <si>
-    <t>Santín</t>
-  </si>
-  <si>
-    <t>10405904Z</t>
-  </si>
-  <si>
-    <t>Héctor</t>
-  </si>
-  <si>
-    <t>Melcón</t>
-  </si>
-  <si>
-    <t>Otero</t>
-  </si>
-  <si>
-    <t>09548392B</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>Castañeda</t>
-  </si>
-  <si>
-    <t>09570242B</t>
-  </si>
-  <si>
-    <t>Germán</t>
-  </si>
-  <si>
-    <t>Bariales</t>
-  </si>
-  <si>
-    <t>09314602Q</t>
-  </si>
-  <si>
-    <t>Inés</t>
-  </si>
-  <si>
-    <t>Riverto</t>
-  </si>
-  <si>
-    <t>Fuertes</t>
-  </si>
-  <si>
-    <t>09548150E</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Echevarria</t>
-  </si>
-  <si>
-    <t>Almanzar</t>
-  </si>
-  <si>
-    <t>09810142K</t>
-  </si>
-  <si>
-    <t>Ismael</t>
-  </si>
-  <si>
-    <t>09545570H</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>10940987W</t>
-  </si>
-  <si>
-    <t>Julio Ernesto</t>
-  </si>
-  <si>
-    <t>71393396Q</t>
-  </si>
-  <si>
-    <t>Justina</t>
-  </si>
-  <si>
-    <t>10575307E</t>
-  </si>
-  <si>
-    <t>Julio Pedro</t>
-  </si>
-  <si>
-    <t>09632539R</t>
-  </si>
-  <si>
-    <t>Víctor</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>09548283V</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Sevillano</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>02518676S</t>
-  </si>
-  <si>
-    <t>Soledad</t>
-  </si>
-  <si>
-    <t>Arias</t>
-  </si>
-  <si>
-    <t>09786363R</t>
-  </si>
-  <si>
-    <t>Serafín</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>09758365V</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Sutil</t>
-  </si>
-  <si>
-    <t>09611066X</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Galán</t>
-  </si>
-  <si>
-    <t>Amo</t>
-  </si>
-  <si>
-    <t>71878948S</t>
-  </si>
-  <si>
-    <t>Rubén Darío</t>
-  </si>
-  <si>
-    <t>09548287K</t>
-  </si>
-  <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t>Laiz</t>
-  </si>
-  <si>
-    <t>Domínguez</t>
-  </si>
-  <si>
-    <t>09548451R</t>
-  </si>
-  <si>
-    <t>Rocío</t>
-  </si>
-  <si>
-    <t>Gil</t>
-  </si>
-  <si>
-    <t>09481741Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramón </t>
-  </si>
-  <si>
-    <t>00538394X</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Orejas</t>
-  </si>
-  <si>
-    <t>Díez</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Olle</t>
-  </si>
-  <si>
-    <t>09548215H</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Márquez</t>
-  </si>
-  <si>
-    <t>09779285F</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Iglesias</t>
-  </si>
-  <si>
-    <t>71597570L</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Manzanares</t>
-  </si>
-  <si>
-    <t>Cadenas</t>
-  </si>
-  <si>
-    <t>09570258G</t>
-  </si>
-  <si>
-    <t>Nieves</t>
-  </si>
-  <si>
-    <t>Morán</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Morala</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>09806572Q</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Benito</t>
-  </si>
-  <si>
-    <t>09548505D</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Belerda</t>
-  </si>
-  <si>
-    <t>Aparicio</t>
-  </si>
-  <si>
-    <t>09706118A</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>Calleja</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>09769669M</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Candanedo</t>
-  </si>
-  <si>
-    <t>Portugues</t>
-  </si>
-  <si>
-    <t>09548317M</t>
-  </si>
-  <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>09458455G</t>
-  </si>
-  <si>
-    <t>Adolfo</t>
-  </si>
-  <si>
-    <t>Bayon</t>
-  </si>
-  <si>
-    <t>12160221Y</t>
-  </si>
-  <si>
-    <t>Iván</t>
-  </si>
-  <si>
-    <t>Carpintero</t>
-  </si>
-  <si>
-    <t>Cepin</t>
-  </si>
-  <si>
-    <t>12649208J</t>
-  </si>
-  <si>
-    <t>Jesús Manuel</t>
-  </si>
-  <si>
-    <t>Centeno</t>
-  </si>
-  <si>
-    <t>X3607387K</t>
-  </si>
-  <si>
-    <t>José Antonio</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Ponga</t>
-  </si>
-  <si>
-    <t>12684218V</t>
-  </si>
-  <si>
-    <t>Nelida</t>
-  </si>
-  <si>
-    <t>Charro</t>
-  </si>
-  <si>
-    <t>09548290R</t>
-  </si>
-  <si>
-    <t>Marisa</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>Cedron</t>
-  </si>
-  <si>
-    <t>09626048L</t>
-  </si>
-  <si>
-    <t>Melisa</t>
-  </si>
-  <si>
-    <t>09548501M</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Cembranos</t>
-  </si>
-  <si>
-    <t>Lombás</t>
-  </si>
-  <si>
-    <t>Almarza</t>
-  </si>
-  <si>
-    <t>71404629W</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Río</t>
-  </si>
-  <si>
-    <t>09570262P</t>
-  </si>
-  <si>
-    <t>X1673150S</t>
-  </si>
-  <si>
-    <t>Latifa Epfouad Erre</t>
-  </si>
-  <si>
-    <t>51556584121251000254</t>
-  </si>
-  <si>
-    <t>26551681877651415636</t>
-  </si>
-  <si>
-    <t>62541122001110105611</t>
-  </si>
-  <si>
-    <t>65645150005168448896</t>
-  </si>
-  <si>
-    <t>20012541100023365233</t>
-  </si>
-  <si>
-    <t>23658965214585223202</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>P2456841A</t>
-  </si>
-  <si>
-    <t>PBlankSA</t>
-  </si>
-  <si>
-    <t>P2492876R</t>
-  </si>
-  <si>
-    <t>APhonSA</t>
-  </si>
-  <si>
-    <t>P2463928T</t>
-  </si>
-  <si>
-    <t>Asoftware</t>
-  </si>
-  <si>
-    <t>P2418823C</t>
-  </si>
-  <si>
-    <t>32145464138452163421</t>
-  </si>
-  <si>
-    <t>31645124473461205164</t>
-  </si>
-  <si>
-    <t>65614874165615445616</t>
-  </si>
-  <si>
-    <t>32569523016220165156</t>
-  </si>
-  <si>
-    <t>24561937521546497521</t>
-  </si>
-  <si>
-    <t>36520125638451012515</t>
-  </si>
-  <si>
-    <t>20125003305201112544</t>
-  </si>
-  <si>
-    <t>21651484690980008984</t>
-  </si>
-  <si>
-    <t>Y1337652D</t>
-  </si>
-  <si>
-    <t>21564975243245467995</t>
-  </si>
-  <si>
-    <t>32566221522587754554</t>
-  </si>
-  <si>
-    <t>23215465315456411515</t>
-  </si>
-  <si>
-    <t>00750184310702510000</t>
-  </si>
-  <si>
-    <t>21584976902154655487</t>
-  </si>
-  <si>
-    <t>25894363475485700145</t>
-  </si>
-  <si>
-    <t>96431245118150005156</t>
-  </si>
-  <si>
-    <t>25030000114574745458</t>
-  </si>
-  <si>
-    <t>15953684811254695203</t>
-  </si>
-  <si>
-    <t>20960043023096200000</t>
-  </si>
-  <si>
-    <t>Y0806930N</t>
-  </si>
-  <si>
-    <t>23455254943263234457</t>
-  </si>
-  <si>
-    <t>09741995T</t>
-  </si>
-  <si>
-    <t>20960043032159000000</t>
-  </si>
-  <si>
-    <t>12669681115112121210</t>
-  </si>
-  <si>
-    <t>56187775315550000651</t>
-  </si>
-  <si>
-    <t>25516848021156151054</t>
-  </si>
-  <si>
-    <t>64578946740051516490</t>
-  </si>
-  <si>
-    <t>34698752714600549403</t>
-  </si>
-  <si>
-    <t>66649444162310000255</t>
-  </si>
-  <si>
-    <t>23185484465641685100</t>
-  </si>
-  <si>
-    <t>52198484752100515144</t>
-  </si>
-  <si>
-    <t>36250012804785523365</t>
-  </si>
-  <si>
-    <t>22515651915640081000</t>
-  </si>
-  <si>
-    <t>21508149175421346497</t>
-  </si>
-  <si>
-    <t>24304263W</t>
-  </si>
-  <si>
-    <t>21346154503164978451</t>
-  </si>
-  <si>
-    <t>25187786311225455548</t>
-  </si>
-  <si>
-    <t>23164897642213030615</t>
-  </si>
-  <si>
-    <t>96536214865214585214</t>
-  </si>
-  <si>
-    <t>85461325251978750005</t>
-  </si>
-  <si>
-    <t>24587946032003165464</t>
-  </si>
-  <si>
-    <t>24571671N</t>
-  </si>
-  <si>
-    <t>20960043073071400000</t>
-  </si>
-  <si>
-    <t>20960043042158800000</t>
-  </si>
-  <si>
-    <t>21654587985156484454</t>
-  </si>
-  <si>
-    <t>51651681961210656510</t>
-  </si>
-  <si>
-    <t>66552211148855332200</t>
-  </si>
-  <si>
-    <t>09548827D</t>
-  </si>
-  <si>
-    <t>X8996448K</t>
-  </si>
-  <si>
-    <t>01821135910205540000</t>
-  </si>
-  <si>
-    <t>22631245526916432102</t>
-  </si>
-  <si>
-    <t>09548295Y</t>
-  </si>
-  <si>
-    <t>20960043043075700000</t>
-  </si>
-  <si>
-    <t>25635478321002541225</t>
-  </si>
-  <si>
-    <t>32154697195423121000</t>
-  </si>
-  <si>
-    <t>36521452736500658485</t>
-  </si>
-  <si>
-    <t>20008521528775113366</t>
-  </si>
-  <si>
-    <t>51651487910005118185</t>
-  </si>
-  <si>
-    <t>09611087P</t>
-  </si>
-  <si>
-    <t>21651651812511133551</t>
-  </si>
-  <si>
-    <t>20960043033000100000</t>
-  </si>
-  <si>
-    <t>36585214290025478551</t>
-  </si>
-  <si>
-    <t>12548523465214585214</t>
-  </si>
-  <si>
-    <t>31624561042546920007</t>
-  </si>
-  <si>
-    <t>36154231712500312566</t>
-  </si>
-  <si>
-    <t>44875664127231645789</t>
-  </si>
-  <si>
-    <t>09548486J</t>
-  </si>
-  <si>
-    <t>33620012937852100256</t>
-  </si>
-  <si>
-    <t>33218885441445121022</t>
-  </si>
-  <si>
-    <t>62581542713690044508</t>
-  </si>
-  <si>
-    <t>25165151118666365100</t>
-  </si>
-  <si>
-    <t>36952365020014425254</t>
-  </si>
-  <si>
-    <t>65168874641561561500</t>
-  </si>
-  <si>
-    <t>20960583831234500000</t>
-  </si>
-  <si>
-    <t>21416325811510005514</t>
-  </si>
-  <si>
-    <t>32628484504115151115</t>
-  </si>
-  <si>
-    <t>63516541828944000984</t>
-  </si>
-  <si>
-    <t>32658012367712548745</t>
-  </si>
-  <si>
-    <t>23652365142254222000</t>
-  </si>
-  <si>
-    <t>32584216971684051000</t>
-  </si>
-  <si>
-    <t>55065688761051056105</t>
-  </si>
-  <si>
-    <t>95485212315484010000</t>
-  </si>
-  <si>
-    <t>21856333126985542360</t>
-  </si>
-  <si>
-    <t>36245978133245679001</t>
-  </si>
-  <si>
-    <t>31245164156597845124</t>
-  </si>
-  <si>
-    <t>23221158252545471411</t>
-  </si>
-  <si>
-    <t>32574512085411002255</t>
-  </si>
-  <si>
-    <t>20960043013468900000</t>
-  </si>
-  <si>
-    <t>09548443Q</t>
-  </si>
-  <si>
-    <t>31215643855060225021</t>
-  </si>
-  <si>
-    <t>09749147E</t>
-  </si>
-  <si>
-    <t>85550564726165145610</t>
-  </si>
-  <si>
-    <t>65165654918886005001</t>
-  </si>
-  <si>
-    <t>26221011628048788896</t>
-  </si>
-  <si>
-    <t>12548521518742146695</t>
-  </si>
-  <si>
-    <t>32541112811220000588</t>
-  </si>
-  <si>
-    <t>99558741836555551120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1903,24 +1904,24 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="8" max="8" style="2" width="11.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="28.81640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.26953125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="7.54296875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1994,9 +1995,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
@@ -2020,7 +2021,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
@@ -2030,12 +2031,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2056,7 +2057,7 @@
         <v>133</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K4" t="s">
         <v>90</v>
@@ -2066,12 +2067,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -2089,10 +2090,10 @@
         <v>189</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>485</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -2102,7 +2103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2116,31 +2117,31 @@
         <v>40664</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>188</v>
       </c>
       <c r="G6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>100</v>
@@ -2155,16 +2156,16 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K7" t="s">
         <v>86</v>
@@ -2174,7 +2175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>38200</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
@@ -2197,29 +2198,29 @@
         <v>176</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2240,7 +2241,7 @@
         <v>168</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K10" t="s">
         <v>87</v>
@@ -2250,12 +2251,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -2264,19 +2265,19 @@
         <v>37226</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>155</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
@@ -2286,9 +2287,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
         <v>100</v>
@@ -2309,7 +2310,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>80</v>
@@ -2322,9 +2323,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>100</v>
@@ -2345,10 +2346,10 @@
         <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -2358,12 +2359,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
@@ -2372,34 +2373,34 @@
         <v>38139</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>119</v>
       </c>
       <c r="G14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2408,31 +2409,31 @@
         <v>40087</v>
       </c>
       <c r="E15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" t="s">
         <v>266</v>
-      </c>
-      <c r="F15" t="s">
-        <v>267</v>
       </c>
       <c r="G15" t="s">
         <v>139</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L15"/>
       <c r="M15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
@@ -2450,10 +2451,10 @@
         <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K16" t="s">
         <v>88</v>
@@ -2463,9 +2464,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
@@ -2486,10 +2487,10 @@
         <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
@@ -2499,12 +2500,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -2513,34 +2514,34 @@
         <v>39022</v>
       </c>
       <c r="E18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" t="s">
         <v>329</v>
-      </c>
-      <c r="F18" t="s">
-        <v>330</v>
       </c>
       <c r="G18" t="s">
         <v>129</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -2549,19 +2550,19 @@
         <v>40118</v>
       </c>
       <c r="E19" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" t="s">
         <v>315</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>316</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
@@ -2571,12 +2572,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -2585,7 +2586,7 @@
         <v>36831</v>
       </c>
       <c r="E20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -2594,25 +2595,25 @@
         <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L20"/>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -2621,31 +2622,31 @@
         <v>41548</v>
       </c>
       <c r="E21" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" t="s">
         <v>312</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="J21" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -2669,7 +2670,7 @@
         <v>43</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
@@ -2679,12 +2680,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2699,10 +2700,10 @@
         <v>61</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K23" t="s">
         <v>90</v>
@@ -2712,7 +2713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>41944</v>
       </c>
       <c r="E24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F24" t="s">
         <v>61</v>
@@ -2735,10 +2736,10 @@
         <v>61</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
@@ -2748,9 +2749,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
         <v>100</v>
@@ -2781,7 +2782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2804,10 +2805,10 @@
         <v>33</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -2817,12 +2818,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -2831,7 +2832,7 @@
         <v>40452</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -2840,10 +2841,10 @@
         <v>151</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K27" t="s">
         <v>86</v>
@@ -2853,13 +2854,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -2871,19 +2872,19 @@
         <v>35735</v>
       </c>
       <c r="E29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
         <v>299</v>
       </c>
-      <c r="F29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="J29" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
@@ -2893,12 +2894,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -2919,7 +2920,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
@@ -2929,12 +2930,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -2943,31 +2944,31 @@
         <v>36465</v>
       </c>
       <c r="E31" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" t="s">
         <v>319</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>320</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="J31" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L31"/>
       <c r="M31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
@@ -2979,19 +2980,19 @@
         <v>36039</v>
       </c>
       <c r="E32" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" t="s">
         <v>323</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>324</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="J32" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
@@ -3001,12 +3002,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -3015,19 +3016,19 @@
         <v>38777</v>
       </c>
       <c r="E33" t="s">
+        <v>331</v>
+      </c>
+      <c r="F33" t="s">
         <v>332</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>333</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="J33" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
@@ -3037,7 +3038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3051,29 +3052,29 @@
         <v>38169</v>
       </c>
       <c r="E34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" t="s">
         <v>269</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="J34" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L34"/>
       <c r="M34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3087,19 +3088,19 @@
         <v>40118</v>
       </c>
       <c r="E35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" t="s">
         <v>215</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>216</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="J35" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
@@ -3109,12 +3110,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -3123,34 +3124,34 @@
         <v>40664</v>
       </c>
       <c r="E36" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" t="s">
         <v>234</v>
-      </c>
-      <c r="F36" t="s">
-        <v>235</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -3159,34 +3160,34 @@
         <v>37865</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="J37" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -3195,7 +3196,7 @@
         <v>36192</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F38" t="s">
         <v>39</v>
@@ -3204,10 +3205,10 @@
         <v>113</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K38" t="s">
         <v>86</v>
@@ -3217,7 +3218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3231,19 +3232,19 @@
         <v>40817</v>
       </c>
       <c r="E39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" t="s">
         <v>352</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>353</v>
       </c>
-      <c r="G39" t="s">
-        <v>354</v>
-      </c>
       <c r="H39" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="K39" t="s">
         <v>86</v>
@@ -3253,12 +3254,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -3267,19 +3268,19 @@
         <v>42979</v>
       </c>
       <c r="E40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" t="s">
         <v>336</v>
-      </c>
-      <c r="F40" t="s">
-        <v>337</v>
       </c>
       <c r="G40" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K40" t="s">
         <v>85</v>
@@ -3289,9 +3290,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
@@ -3303,19 +3304,19 @@
         <v>40057</v>
       </c>
       <c r="E41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" t="s">
         <v>339</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>340</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="J41" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K41" t="s">
         <v>85</v>
@@ -3325,9 +3326,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
         <v>100</v>
@@ -3351,7 +3352,7 @@
         <v>126</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
@@ -3361,12 +3362,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3375,19 +3376,19 @@
         <v>39600</v>
       </c>
       <c r="E43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" t="s">
         <v>343</v>
-      </c>
-      <c r="F43" t="s">
-        <v>344</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
         <v>85</v>
@@ -3397,9 +3398,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B44" t="s">
         <v>100</v>
@@ -3411,19 +3412,19 @@
         <v>42370</v>
       </c>
       <c r="E44" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" t="s">
         <v>346</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>347</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="J44" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K44" t="s">
         <v>89</v>
@@ -3433,9 +3434,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s">
         <v>100</v>
@@ -3456,10 +3457,10 @@
         <v>39</v>
       </c>
       <c r="H45" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="K45" t="s">
         <v>85</v>
@@ -3469,9 +3470,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
@@ -3495,7 +3496,7 @@
         <v>42</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
         <v>85</v>
@@ -3505,12 +3506,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -3531,7 +3532,7 @@
         <v>182</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K47" t="s">
         <v>85</v>
@@ -3541,12 +3542,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -3567,7 +3568,7 @@
         <v>141</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
@@ -3577,7 +3578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3591,19 +3592,19 @@
         <v>41030</v>
       </c>
       <c r="E49" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" t="s">
         <v>244</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>245</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="J49" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -3613,9 +3614,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
@@ -3633,7 +3634,7 @@
         <v>66</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>81</v>
@@ -3646,12 +3647,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
@@ -3666,10 +3667,10 @@
         <v>68</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="K51" t="s">
         <v>86</v>
@@ -3679,9 +3680,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
@@ -3705,7 +3706,7 @@
         <v>137</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K52" t="s">
         <v>86</v>
@@ -3715,7 +3716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3738,10 +3739,10 @@
         <v>22</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="K53" t="s">
         <v>85</v>
@@ -3751,7 +3752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3765,34 +3766,34 @@
         <v>39995</v>
       </c>
       <c r="E54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F54" t="s">
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -3801,19 +3802,19 @@
         <v>40299</v>
       </c>
       <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
         <v>191</v>
-      </c>
-      <c r="F55" t="s">
-        <v>192</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s">
         <v>85</v>
@@ -3823,12 +3824,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C56" t="s">
         <v>51</v>
@@ -3837,19 +3838,19 @@
         <v>43040</v>
       </c>
       <c r="E56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56" t="s">
         <v>206</v>
       </c>
-      <c r="F56" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="J56" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s">
         <v>87</v>
@@ -3859,12 +3860,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
@@ -3885,7 +3886,7 @@
         <v>170</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
         <v>91</v>
@@ -3895,7 +3896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3909,19 +3910,19 @@
         <v>38869</v>
       </c>
       <c r="E58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
         <v>275</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>276</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="J58" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
         <v>85</v>
@@ -3931,11 +3932,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>79</v>
@@ -3971,12 +3972,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
         <v>46</v>
@@ -3985,7 +3986,7 @@
         <v>40026</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
@@ -3994,10 +3995,10 @@
         <v>33</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K61" t="s">
         <v>85</v>
@@ -4007,9 +4008,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B62" t="s">
         <v>100</v>
@@ -4033,7 +4034,7 @@
         <v>69</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K62" t="s">
         <v>85</v>
@@ -4043,12 +4044,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -4057,19 +4058,19 @@
         <v>38504</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
         <v>33</v>
       </c>
       <c r="G63" t="s">
+        <v>203</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="J63" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K63" t="s">
         <v>91</v>
@@ -4079,12 +4080,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s">
         <v>48</v>
@@ -4105,7 +4106,7 @@
         <v>122</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K64" t="s">
         <v>85</v>
@@ -4115,7 +4116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4129,19 +4130,19 @@
         <v>41487</v>
       </c>
       <c r="E65" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" t="s">
         <v>219</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>220</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="J65" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K65" t="s">
         <v>85</v>
@@ -4151,12 +4152,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -4177,7 +4178,7 @@
         <v>152</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K66" t="s">
         <v>85</v>
@@ -4187,9 +4188,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B67" t="s">
         <v>100</v>
@@ -4201,19 +4202,19 @@
         <v>36465</v>
       </c>
       <c r="E67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F67" t="s">
         <v>151</v>
       </c>
       <c r="G67" t="s">
+        <v>357</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="J67" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K67" t="s">
         <v>85</v>
@@ -4223,9 +4224,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s">
         <v>100</v>
@@ -4246,7 +4247,7 @@
         <v>96</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>77</v>
@@ -4259,12 +4260,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -4273,19 +4274,19 @@
         <v>42795</v>
       </c>
       <c r="E69" t="s">
+        <v>305</v>
+      </c>
+      <c r="F69" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" t="s">
         <v>306</v>
       </c>
-      <c r="F69" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" t="s">
-        <v>307</v>
-      </c>
       <c r="H69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="K69" t="s">
         <v>85</v>
@@ -4295,12 +4296,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
@@ -4309,7 +4310,7 @@
         <v>41426</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F70" t="s">
         <v>149</v>
@@ -4318,10 +4319,10 @@
         <v>140</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s">
         <v>85</v>
@@ -4331,12 +4332,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
@@ -4357,7 +4358,7 @@
         <v>164</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s">
         <v>85</v>
@@ -4367,12 +4368,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -4381,19 +4382,19 @@
         <v>40057</v>
       </c>
       <c r="E72" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" t="s">
         <v>281</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>282</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="J72" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K72" t="s">
         <v>85</v>
@@ -4403,9 +4404,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B73" t="s">
         <v>100</v>
@@ -4426,10 +4427,10 @@
         <v>35</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K73" t="s">
         <v>85</v>
@@ -4439,9 +4440,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s">
         <v>100</v>
@@ -4453,34 +4454,34 @@
         <v>37591</v>
       </c>
       <c r="E74" t="s">
+        <v>301</v>
+      </c>
+      <c r="F74" t="s">
         <v>302</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>303</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="J74" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L74"/>
       <c r="M74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -4489,19 +4490,19 @@
         <v>36770</v>
       </c>
       <c r="E75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" t="s">
         <v>296</v>
-      </c>
-      <c r="F75" t="s">
-        <v>297</v>
       </c>
       <c r="G75" t="s">
         <v>129</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K75" t="s">
         <v>85</v>
@@ -4511,9 +4512,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" t="s">
         <v>100</v>
@@ -4537,7 +4538,7 @@
         <v>69</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K76" t="s">
         <v>85</v>
@@ -4547,12 +4548,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -4561,19 +4562,19 @@
         <v>40299</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K77" t="s">
         <v>85</v>
@@ -4583,7 +4584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4597,35 +4598,35 @@
         <v>40664</v>
       </c>
       <c r="E78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F78" t="s">
         <v>230</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>231</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="J78" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L78"/>
       <c r="M78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
@@ -4656,12 +4657,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C81" t="s">
         <v>52</v>
@@ -4682,7 +4683,7 @@
         <v>174</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K81" t="s">
         <v>85</v>
@@ -4692,9 +4693,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
         <v>100</v>
@@ -4706,19 +4707,19 @@
         <v>43647</v>
       </c>
       <c r="E82" t="s">
+        <v>307</v>
+      </c>
+      <c r="F82" t="s">
         <v>308</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>309</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="J82" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K82" t="s">
         <v>85</v>
@@ -4727,12 +4728,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C83" t="s">
         <v>50</v>
@@ -4753,7 +4754,7 @@
         <v>130</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K83" t="s">
         <v>89</v>
@@ -4763,12 +4764,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
@@ -4777,19 +4778,19 @@
         <v>37165</v>
       </c>
       <c r="E84" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" t="s">
         <v>293</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G84" t="s">
-        <v>273</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="J84" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K84" t="s">
         <v>85</v>
@@ -4799,12 +4800,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -4813,30 +4814,30 @@
         <v>37500</v>
       </c>
       <c r="E85" t="s">
+        <v>289</v>
+      </c>
+      <c r="F85" t="s">
         <v>290</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>291</v>
       </c>
-      <c r="G85" t="s">
-        <v>292</v>
-      </c>
       <c r="J85" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -4845,19 +4846,19 @@
         <v>42370</v>
       </c>
       <c r="E86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K86" t="s">
         <v>85</v>
@@ -4867,12 +4868,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -4893,7 +4894,7 @@
         <v>145</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K87" t="s">
         <v>85</v>
@@ -4903,12 +4904,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -4929,7 +4930,7 @@
         <v>148</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K88" t="s">
         <v>85</v>
@@ -4939,7 +4940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -4953,34 +4954,34 @@
         <v>39052</v>
       </c>
       <c r="E89" t="s">
+        <v>257</v>
+      </c>
+      <c r="F89" t="s">
         <v>258</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
+        <v>258</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G89" t="s">
-        <v>259</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="J89" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L89"/>
       <c r="M89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
@@ -5001,7 +5002,7 @@
         <v>156</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K90" t="s">
         <v>85</v>
@@ -5011,12 +5012,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -5037,7 +5038,7 @@
         <v>118</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K91" t="s">
         <v>85</v>
@@ -5047,12 +5048,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -5061,7 +5062,7 @@
         <v>36951</v>
       </c>
       <c r="E92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F92" t="s">
         <v>32</v>
@@ -5070,20 +5071,20 @@
         <v>33</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L92"/>
       <c r="M92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5097,29 +5098,29 @@
         <v>38534</v>
       </c>
       <c r="E93" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" t="s">
         <v>240</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>241</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="J93" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L93"/>
       <c r="M93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>44</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K94" t="s">
         <v>85</v>
@@ -5155,7 +5156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -5175,13 +5176,13 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H95" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="K95" t="s">
         <v>85</v>
@@ -5191,7 +5192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>41852</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F96" t="s">
         <v>176</v>
@@ -5214,25 +5215,25 @@
         <v>33</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J96" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="K96" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L96"/>
       <c r="M96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -5253,7 +5254,7 @@
         <v>178</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K97" t="s">
         <v>85</v>
@@ -5263,12 +5264,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B98" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -5289,7 +5290,7 @@
         <v>160</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K98" t="s">
         <v>85</v>
@@ -5299,12 +5300,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C99" t="s">
         <v>52</v>
@@ -5325,7 +5326,7 @@
         <v>115</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K99" t="s">
         <v>85</v>
@@ -5335,16 +5336,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -5353,33 +5354,33 @@
         <v>44317</v>
       </c>
       <c r="E101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
         <v>113</v>
       </c>
       <c r="G101" t="s">
+        <v>212</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="J101" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M101" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C102" t="s">
         <v>45</v>
@@ -5388,19 +5389,19 @@
         <v>41548</v>
       </c>
       <c r="E102" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" t="s">
         <v>200</v>
-      </c>
-      <c r="F102" t="s">
-        <v>201</v>
       </c>
       <c r="G102" t="s">
         <v>140</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K102" t="s">
         <v>90</v>
@@ -5410,7 +5411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -5424,33 +5425,33 @@
         <v>44378</v>
       </c>
       <c r="E103" t="s">
+        <v>226</v>
+      </c>
+      <c r="F103" t="s">
         <v>227</v>
-      </c>
-      <c r="F103" t="s">
-        <v>228</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M103" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B104" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C104" t="s">
         <v>50</v>
@@ -5459,28 +5460,28 @@
         <v>43709</v>
       </c>
       <c r="E104" t="s">
+        <v>261</v>
+      </c>
+      <c r="F104" t="s">
         <v>262</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>263</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="J104" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5494,28 +5495,28 @@
         <v>43862</v>
       </c>
       <c r="E105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" t="s">
         <v>224</v>
-      </c>
-      <c r="F105" t="s">
-        <v>225</v>
       </c>
       <c r="G105" t="s">
         <v>113</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M105" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5529,22 +5530,22 @@
         <v>41730</v>
       </c>
       <c r="E106" t="s">
+        <v>271</v>
+      </c>
+      <c r="F106" t="s">
         <v>272</v>
-      </c>
-      <c r="F106" t="s">
-        <v>273</v>
       </c>
       <c r="G106" t="s">
         <v>113</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L106"/>
       <c r="M106" t="s">
@@ -5567,22 +5568,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5760,12 +5761,12 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="20.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -6157,7 +6158,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -6178,13 +6179,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -6261,13 +6262,13 @@
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="532">
   <si>
     <t>Nombre</t>
   </si>
@@ -1487,6 +1487,144 @@
   </si>
   <si>
     <t>09611071S</t>
+  </si>
+  <si>
+    <t>209600431143554600000</t>
+  </si>
+  <si>
+    <t>321454641038452163421</t>
+  </si>
+  <si>
+    <t>325695231116220165156</t>
+  </si>
+  <si>
+    <t>201250033115201112544</t>
+  </si>
+  <si>
+    <t>232154653105456411515</t>
+  </si>
+  <si>
+    <t>215849769112154655487</t>
+  </si>
+  <si>
+    <t>9643124510108150005156</t>
+  </si>
+  <si>
+    <t>250300001014574745458</t>
+  </si>
+  <si>
+    <t>159536848101254695203</t>
+  </si>
+  <si>
+    <t>209600431123096200000</t>
+  </si>
+  <si>
+    <t>209600431132159000000</t>
+  </si>
+  <si>
+    <t>126696811105112121210</t>
+  </si>
+  <si>
+    <t>255168481121156151054</t>
+  </si>
+  <si>
+    <t>666494441062310000255</t>
+  </si>
+  <si>
+    <t>362500128114785523365</t>
+  </si>
+  <si>
+    <t>225156519105640081000</t>
+  </si>
+  <si>
+    <t>213461545113164978451</t>
+  </si>
+  <si>
+    <t>245879461132003165464</t>
+  </si>
+  <si>
+    <t>209600431173071400000</t>
+  </si>
+  <si>
+    <t>209600431142158800000</t>
+  </si>
+  <si>
+    <t>665522111048855332200</t>
+  </si>
+  <si>
+    <t>209600431143075700000</t>
+  </si>
+  <si>
+    <t>516514879100005118185</t>
+  </si>
+  <si>
+    <t>018265301020201560000</t>
+  </si>
+  <si>
+    <t>209600431133000100000</t>
+  </si>
+  <si>
+    <t>316245611142546920007</t>
+  </si>
+  <si>
+    <t>361542317102500312566</t>
+  </si>
+  <si>
+    <t>448756641027231645789</t>
+  </si>
+  <si>
+    <t>625815427103690044508</t>
+  </si>
+  <si>
+    <t>369523651120014425254</t>
+  </si>
+  <si>
+    <t>214163258101510005514</t>
+  </si>
+  <si>
+    <t>326284845114115151115</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>236523651042254222000</t>
+  </si>
+  <si>
+    <t>200125411050023365233</t>
+  </si>
+  <si>
+    <t>362459781033245679001</t>
+  </si>
+  <si>
+    <t>325745121185411002255</t>
+  </si>
+  <si>
+    <t>2096004311103468900000</t>
+  </si>
+  <si>
+    <t>651656549108886005001</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>265516818117651415636</t>
+  </si>
+  <si>
+    <t>111122235114444444444</t>
+  </si>
+  <si>
+    <t>11112223504444444444</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2123,7 @@
         <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="K2" t="s">
         <v>85</v>
@@ -2021,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
@@ -2057,7 +2195,7 @@
         <v>133</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>389</v>
+        <v>531</v>
       </c>
       <c r="K4" t="s">
         <v>90</v>
@@ -2093,7 +2231,7 @@
         <v>485</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>390</v>
+        <v>531</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -2129,7 +2267,7 @@
         <v>238</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>391</v>
+        <v>531</v>
       </c>
       <c r="K6" t="s">
         <v>374</v>
@@ -2165,7 +2303,7 @@
         <v>355</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>392</v>
+        <v>531</v>
       </c>
       <c r="K7" t="s">
         <v>86</v>
@@ -2201,7 +2339,7 @@
         <v>250</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>393</v>
+        <v>531</v>
       </c>
       <c r="K8" t="s">
         <v>367</v>
@@ -2241,7 +2379,7 @@
         <v>168</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="K10" t="s">
         <v>87</v>
@@ -2277,7 +2415,7 @@
         <v>279</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>395</v>
+        <v>531</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
@@ -2313,7 +2451,7 @@
         <v>396</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="K12" t="s">
         <v>89</v>
@@ -2349,7 +2487,7 @@
         <v>396</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -2385,7 +2523,7 @@
         <v>286</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="K14" t="s">
         <v>371</v>
@@ -2421,7 +2559,7 @@
         <v>267</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>399</v>
+        <v>531</v>
       </c>
       <c r="K15" t="s">
         <v>377</v>
@@ -2454,7 +2592,7 @@
         <v>359</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="K16" t="s">
         <v>88</v>
@@ -2490,7 +2628,7 @@
         <v>359</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>401</v>
+        <v>531</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
@@ -2526,7 +2664,7 @@
         <v>330</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="K18" t="s">
         <v>376</v>
@@ -2562,7 +2700,7 @@
         <v>317</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
@@ -2598,7 +2736,7 @@
         <v>327</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>404</v>
+        <v>531</v>
       </c>
       <c r="K20" t="s">
         <v>368</v>
@@ -2634,7 +2772,7 @@
         <v>313</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>405</v>
+        <v>531</v>
       </c>
       <c r="K21" t="s">
         <v>370</v>
@@ -2670,7 +2808,7 @@
         <v>43</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
@@ -2703,7 +2841,7 @@
         <v>407</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="K23" t="s">
         <v>90</v>
@@ -2739,7 +2877,7 @@
         <v>407</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>408</v>
+        <v>531</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
@@ -2772,7 +2910,7 @@
         <v>64</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="K25" t="s">
         <v>87</v>
@@ -2808,7 +2946,7 @@
         <v>409</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -2844,7 +2982,7 @@
         <v>198</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="K27" t="s">
         <v>86</v>
@@ -2884,7 +3022,7 @@
         <v>300</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>412</v>
+        <v>531</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
@@ -2920,7 +3058,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>413</v>
+        <v>531</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
@@ -2956,7 +3094,7 @@
         <v>321</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>414</v>
+        <v>531</v>
       </c>
       <c r="K31" t="s">
         <v>380</v>
@@ -2992,7 +3130,7 @@
         <v>325</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
@@ -3028,7 +3166,7 @@
         <v>334</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
@@ -3064,7 +3202,7 @@
         <v>270</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
       <c r="K34" t="s">
         <v>378</v>
@@ -3100,7 +3238,7 @@
         <v>217</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>418</v>
+        <v>531</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
@@ -3136,7 +3274,7 @@
         <v>235</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="K36" t="s">
         <v>373</v>
@@ -3172,7 +3310,7 @@
         <v>210</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>420</v>
+        <v>531</v>
       </c>
       <c r="K37" t="s">
         <v>368</v>
@@ -3208,7 +3346,7 @@
         <v>350</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>421</v>
+        <v>531</v>
       </c>
       <c r="K38" t="s">
         <v>86</v>
@@ -3244,7 +3382,7 @@
         <v>422</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>423</v>
+        <v>531</v>
       </c>
       <c r="K39" t="s">
         <v>86</v>
@@ -3280,7 +3418,7 @@
         <v>337</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="K40" t="s">
         <v>85</v>
@@ -3316,7 +3454,7 @@
         <v>341</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="K41" t="s">
         <v>85</v>
@@ -3352,7 +3490,7 @@
         <v>126</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>426</v>
+        <v>531</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
@@ -3388,7 +3526,7 @@
         <v>344</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
       <c r="K43" t="s">
         <v>85</v>
@@ -3424,7 +3562,7 @@
         <v>348</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="K44" t="s">
         <v>89</v>
@@ -3460,7 +3598,7 @@
         <v>429</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="K45" t="s">
         <v>85</v>
@@ -3496,7 +3634,7 @@
         <v>42</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>431</v>
+        <v>531</v>
       </c>
       <c r="K46" t="s">
         <v>85</v>
@@ -3532,7 +3670,7 @@
         <v>182</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="K47" t="s">
         <v>85</v>
@@ -3568,7 +3706,7 @@
         <v>141</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>433</v>
+        <v>531</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
@@ -3604,7 +3742,7 @@
         <v>246</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -3637,7 +3775,7 @@
         <v>435</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="K50" t="s">
         <v>91</v>
@@ -3670,7 +3808,7 @@
         <v>436</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="K51" t="s">
         <v>86</v>
@@ -3706,7 +3844,7 @@
         <v>137</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="K52" t="s">
         <v>86</v>
@@ -3742,7 +3880,7 @@
         <v>439</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>440</v>
+        <v>531</v>
       </c>
       <c r="K53" t="s">
         <v>85</v>
@@ -3778,7 +3916,7 @@
         <v>248</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="K54" t="s">
         <v>376</v>
@@ -3814,7 +3952,7 @@
         <v>192</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>442</v>
+        <v>531</v>
       </c>
       <c r="K55" t="s">
         <v>85</v>
@@ -3850,7 +3988,7 @@
         <v>207</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="K56" t="s">
         <v>87</v>
@@ -3886,7 +4024,7 @@
         <v>170</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>444</v>
+        <v>531</v>
       </c>
       <c r="K57" t="s">
         <v>91</v>
@@ -3922,7 +4060,7 @@
         <v>277</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>445</v>
+        <v>531</v>
       </c>
       <c r="K58" t="s">
         <v>85</v>
@@ -3962,7 +4100,7 @@
         <v>446</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="K60" t="s">
         <v>85</v>
@@ -3998,7 +4136,7 @@
         <v>194</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="K61" t="s">
         <v>85</v>
@@ -4034,7 +4172,7 @@
         <v>69</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="K62" t="s">
         <v>85</v>
@@ -4070,7 +4208,7 @@
         <v>204</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
         <v>91</v>
@@ -4106,7 +4244,7 @@
         <v>122</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="K64" t="s">
         <v>85</v>
@@ -4142,7 +4280,7 @@
         <v>221</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>451</v>
+        <v>531</v>
       </c>
       <c r="K65" t="s">
         <v>85</v>
@@ -4178,7 +4316,7 @@
         <v>152</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="K66" t="s">
         <v>85</v>
@@ -4214,7 +4352,7 @@
         <v>358</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="K67" t="s">
         <v>85</v>
@@ -4250,7 +4388,7 @@
         <v>435</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="K68" t="s">
         <v>85</v>
@@ -4286,7 +4424,7 @@
         <v>454</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="K69" t="s">
         <v>85</v>
@@ -4322,7 +4460,7 @@
         <v>252</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="K70" t="s">
         <v>85</v>
@@ -4358,7 +4496,7 @@
         <v>164</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="K71" t="s">
         <v>85</v>
@@ -4394,7 +4532,7 @@
         <v>283</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="K72" t="s">
         <v>85</v>
@@ -4430,7 +4568,7 @@
         <v>422</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="K73" t="s">
         <v>85</v>
@@ -4466,7 +4604,7 @@
         <v>304</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="K74" t="s">
         <v>380</v>
@@ -4502,7 +4640,7 @@
         <v>297</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="K75" t="s">
         <v>85</v>
@@ -4538,7 +4676,7 @@
         <v>69</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
       <c r="K76" t="s">
         <v>85</v>
@@ -4574,7 +4712,7 @@
         <v>254</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="K77" t="s">
         <v>85</v>
@@ -4610,7 +4748,7 @@
         <v>232</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="K78" t="s">
         <v>372</v>
@@ -4648,7 +4786,7 @@
       </c>
       <c r="H80" s="3"/>
       <c r="J80" s="5" t="s">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="K80" t="s">
         <v>85</v>
@@ -4683,7 +4821,7 @@
         <v>174</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="K81" t="s">
         <v>85</v>
@@ -4719,7 +4857,7 @@
         <v>310</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>366</v>
+        <v>531</v>
       </c>
       <c r="K82" t="s">
         <v>85</v>
@@ -4754,7 +4892,7 @@
         <v>130</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="K83" t="s">
         <v>89</v>
@@ -4790,7 +4928,7 @@
         <v>294</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="K84" t="s">
         <v>85</v>
@@ -4823,7 +4961,7 @@
         <v>291</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>365</v>
+        <v>531</v>
       </c>
       <c r="K85" t="s">
         <v>378</v>
@@ -4858,7 +4996,7 @@
         <v>256</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="K86" t="s">
         <v>85</v>
@@ -4894,7 +5032,7 @@
         <v>145</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="K87" t="s">
         <v>85</v>
@@ -4930,7 +5068,7 @@
         <v>148</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K88" t="s">
         <v>85</v>
@@ -4966,7 +5104,7 @@
         <v>259</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="K89" t="s">
         <v>371</v>
@@ -5002,7 +5140,7 @@
         <v>156</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="K90" t="s">
         <v>85</v>
@@ -5038,7 +5176,7 @@
         <v>118</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="K91" t="s">
         <v>85</v>
@@ -5074,7 +5212,7 @@
         <v>288</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="K92" t="s">
         <v>376</v>
@@ -5110,7 +5248,7 @@
         <v>242</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="K93" t="s">
         <v>375</v>
@@ -5146,7 +5284,7 @@
         <v>44</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="K94" t="s">
         <v>85</v>
@@ -5182,7 +5320,7 @@
         <v>476</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="K95" t="s">
         <v>85</v>
@@ -5218,7 +5356,7 @@
         <v>478</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="K96" t="s">
         <v>368</v>
@@ -5254,7 +5392,7 @@
         <v>178</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="K97" t="s">
         <v>85</v>
@@ -5290,7 +5428,7 @@
         <v>160</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="K98" t="s">
         <v>85</v>
@@ -5326,7 +5464,7 @@
         <v>115</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="K99" t="s">
         <v>85</v>
@@ -5366,7 +5504,7 @@
         <v>213</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>361</v>
+        <v>531</v>
       </c>
       <c r="K101" t="s">
         <v>369</v>
@@ -5401,7 +5539,7 @@
         <v>201</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="K102" t="s">
         <v>90</v>
@@ -5437,7 +5575,7 @@
         <v>228</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>363</v>
+        <v>531</v>
       </c>
       <c r="K103" t="s">
         <v>371</v>
@@ -5472,7 +5610,7 @@
         <v>264</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>364</v>
+        <v>531</v>
       </c>
       <c r="K104" t="s">
         <v>368</v>
@@ -5507,7 +5645,7 @@
         <v>225</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>362</v>
+        <v>531</v>
       </c>
       <c r="K105" t="s">
         <v>370</v>
